--- a/cvars.xlsx
+++ b/cvars.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\ME\gamesvr-ioquake3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\LL\gamesvr-ioquake3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8233F58C-75A1-4ADC-8B96-CC4E594F0CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880BEFE3-670C-4C9C-B84A-9823A62F4016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A717285-34A5-412E-B89E-38031B3E515D}"/>
+    <workbookView xWindow="30675" yWindow="585" windowWidth="22350" windowHeight="14070" activeTab="1" xr2:uid="{3A717285-34A5-412E-B89E-38031B3E515D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$C$127</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="859">
   <si>
     <t>unbindall</t>
   </si>
@@ -1448,165 +1452,6 @@
     <t>Root administrator password</t>
   </si>
   <si>
-    <t>seta s_buffersize "16384"</t>
-  </si>
-  <si>
-    <t>seta s_chunksize "4096"</t>
-  </si>
-  <si>
-    <t>seta s_doppler "1"</t>
-  </si>
-  <si>
-    <t>Creates the doppler effect sounds as a rocket passes you</t>
-  </si>
-  <si>
-    <t>seta s_khz "11"</t>
-  </si>
-  <si>
-    <t>Sound sampling frequency (11 or 22)</t>
-  </si>
-  <si>
-    <t>seta s_mixahead "0.2"</t>
-  </si>
-  <si>
-    <t>Delay before mixing sounds</t>
-  </si>
-  <si>
-    <t>seta s_mixPreStep "0.05"</t>
-  </si>
-  <si>
-    <t>seta s_musicvolume "-0.050000"</t>
-  </si>
-  <si>
-    <t>Volume of music (0 - 1) (0 = off)</t>
-  </si>
-  <si>
-    <t>seta s_separation "0.5"</t>
-  </si>
-  <si>
-    <t>Sound left and right channel seperation</t>
-  </si>
-  <si>
-    <t>seta s_volume "0.400000"</t>
-  </si>
-  <si>
-    <t>Sound effects volume</t>
-  </si>
-  <si>
-    <t>seta sensitivity "8"</t>
-  </si>
-  <si>
-    <t>Mouse movement vs mousing surface sensivity</t>
-  </si>
-  <si>
-    <t>seta server1 "63.225.175.194"</t>
-  </si>
-  <si>
-    <t>IP of favorite server #1</t>
-  </si>
-  <si>
-    <t>seta server2 ""</t>
-  </si>
-  <si>
-    <t>IP of favorite server #2</t>
-  </si>
-  <si>
-    <t>seta server3 ""</t>
-  </si>
-  <si>
-    <t>IP of favorite server #3</t>
-  </si>
-  <si>
-    <t>seta server4 ""</t>
-  </si>
-  <si>
-    <t>IP of favorite server #4</t>
-  </si>
-  <si>
-    <t>seta server5 ""</t>
-  </si>
-  <si>
-    <t>IP of favorite server #5</t>
-  </si>
-  <si>
-    <t>seta server6 ""</t>
-  </si>
-  <si>
-    <t>IP of favorite server #6</t>
-  </si>
-  <si>
-    <t>seta server7 ""</t>
-  </si>
-  <si>
-    <t>IP of favorite server #7</t>
-  </si>
-  <si>
-    <t>seta server8 ""</t>
-  </si>
-  <si>
-    <t>IP of favorite server #8</t>
-  </si>
-  <si>
-    <t>seta server9 ""</t>
-  </si>
-  <si>
-    <t>IP of favorite server #9</t>
-  </si>
-  <si>
-    <t>seta server10 ""</t>
-  </si>
-  <si>
-    <t>IP of favorite server #10</t>
-  </si>
-  <si>
-    <t>seta server11 ""</t>
-  </si>
-  <si>
-    <t>IP of favorite server #11</t>
-  </si>
-  <si>
-    <t>seta server12 ""</t>
-  </si>
-  <si>
-    <t>IP of favorite server #12</t>
-  </si>
-  <si>
-    <t>seta server13 ""</t>
-  </si>
-  <si>
-    <t>IP of favorite server #13</t>
-  </si>
-  <si>
-    <t>seta server14 ""</t>
-  </si>
-  <si>
-    <t>IP of favorite server #14</t>
-  </si>
-  <si>
-    <t>seta server15 ""</t>
-  </si>
-  <si>
-    <t>IP of favorite server #15</t>
-  </si>
-  <si>
-    <t>seta server16 ""</t>
-  </si>
-  <si>
-    <t>IP of favorite server #16</t>
-  </si>
-  <si>
-    <t>seta sex "male"</t>
-  </si>
-  <si>
-    <t>Gender of model (male or female)</t>
-  </si>
-  <si>
-    <t>seta snaps "20"</t>
-  </si>
-  <si>
-    <t>Snapshots server sends to clients (10, 20, or 40) (server runs at 40)</t>
-  </si>
-  <si>
     <t>seta sv_cheats "0"</t>
   </si>
   <si>
@@ -2004,13 +1849,1213 @@
   </si>
   <si>
     <t>https://l0r3.net/quake_3_config.php</t>
+  </si>
+  <si>
+    <t>banClient</t>
+  </si>
+  <si>
+    <t>ban a client by slot number used in conjunction with serverstatus you can ban players by their slot number regardless of player name (from server console only) part of the client banning system which depends on a master banned list on the master server at id software</t>
+  </si>
+  <si>
+    <t>banUser</t>
+  </si>
+  <si>
+    <t>ban a client by their player name. once the name is entered the players name, IP, and CD-Key are sent to the master server where the player will be band for a length of time determined by id software. lamers take heed this system will ban you from all servers instantly.</t>
+  </si>
+  <si>
+    <t>callteamvote</t>
+  </si>
+  <si>
+    <t>allows a team to vote for a captain or team leader</t>
+  </si>
+  <si>
+    <t>callvote</t>
+  </si>
+  <si>
+    <t>callvote &lt;command&gt; vote &lt;y/n&gt; Caller automatically votes yes vote has a 30 second timeout each client can only call 3 votes a level vote is displayed on screen with totals "John Carmack" vote commands are: map_restart, nextmap, map , g_gametype and kick .</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>clear all text from console</t>
+  </si>
+  <si>
+    <t>clientinfo</t>
+  </si>
+  <si>
+    <t>display name, rate, number of snaps, player model, rail color, and handicap (state number?)</t>
+  </si>
+  <si>
+    <t>clientkick</t>
+  </si>
+  <si>
+    <t>kick a client by slot number used in conjunction with serverstatus you can kick players by their slot number regardless of player name (from server console only)</t>
+  </si>
+  <si>
+    <t>cmd</t>
+  </si>
+  <si>
+    <t>send a command to server remote console</t>
+  </si>
+  <si>
+    <t>cmdlist</t>
+  </si>
+  <si>
+    <t>list all available console commands</t>
+  </si>
+  <si>
+    <t>condump</t>
+  </si>
+  <si>
+    <t>condump "x" write the console text to a file where "x" is the name of that file</t>
+  </si>
+  <si>
+    <t>configstrings</t>
+  </si>
+  <si>
+    <t>list the current config strings in effect</t>
+  </si>
+  <si>
+    <t>connect</t>
+  </si>
+  <si>
+    <t>connect to server (connect 204.52.135.50) or (connect serverURL.com)</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>causes Q3TEST.EXE to perform an illegal operation in Windows</t>
+  </si>
+  <si>
+    <t>cvar_restart</t>
+  </si>
+  <si>
+    <t>reset all variables back to factory defaults (could be handy)</t>
+  </si>
+  <si>
+    <t>cvarlist</t>
+  </si>
+  <si>
+    <t>list all available console variables and their values</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>play demo (demo q3demo001.dm3)</t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>display directory if syntax is correct ex. (dir \) or (dir ..\) or (dir ..\baseq3)</t>
+  </si>
+  <si>
+    <t>disconnect</t>
+  </si>
+  <si>
+    <t>disconnects you from server (local included)</t>
+  </si>
+  <si>
+    <t>dumpuser</t>
+  </si>
+  <si>
+    <t>display user info (handicap, model/color, rail color, more…)(dumpuser "&lt;name&gt;")</t>
+  </si>
+  <si>
+    <t>echo</t>
+  </si>
+  <si>
+    <t>echo a string to the message display to your console only</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>execute an error routine to protect the server</t>
+  </si>
+  <si>
+    <t>exec</t>
+  </si>
+  <si>
+    <t>execute a config file or script</t>
+  </si>
+  <si>
+    <t>fdir</t>
+  </si>
+  <si>
+    <t>allows the user to search his game directory for the presence of file types. a common use for this might be to search out the file names of maps that are often buried inside pak files with different names. syntax: fdir &lt;filter&gt;example: fdir *q3dm?.bsp - In this example, the user is searching all subdirectories (the "*" stands in for the path name) for game maps (the .bsp file extension) that have the letters "q3dm" in their name AND that are followed by a single character (indicated by the "?").one or more metacharacters may be used in the filter.* match any string of zero or more characters? match any single character[abc...] match any of the enclosed characters; a hyphen can be used to specify a range (e.g. a-z, A-Z, 0-9)</t>
+  </si>
+  <si>
+    <t>freeze</t>
+  </si>
+  <si>
+    <t>freeze game and all animation for specified time (freeze 5) (5 seconds)</t>
+  </si>
+  <si>
+    <t>fs_openedList</t>
+  </si>
+  <si>
+    <t>display the file name of open pak files (pk3)</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>cheat - give player item (give railgun</t>
+  </si>
+  <si>
+    <t>hunk_stats</t>
+  </si>
+  <si>
+    <t>meminfo command replaces hunk_stats and z_stats "John Carmack"</t>
+  </si>
+  <si>
+    <t>returns value of some registers how many bits high/low and total meminfo command replaces hunk_stats and z_stats "John Carmack"</t>
+  </si>
+  <si>
+    <t>kick</t>
+  </si>
+  <si>
+    <t>kick the player with the given name off the server. if nobody uses the name "all" and "all" is specified as player name then everyone is kicked. if there are no bots with the name "allbots" and "allbots" is specified as player name then all the bots are kicked. (from server console only…kick "&lt;name&gt;")</t>
+  </si>
+  <si>
+    <t>killserver</t>
+  </si>
+  <si>
+    <t>stops server from running and broadcasting heartbeat??</t>
+  </si>
+  <si>
+    <t>localservers</t>
+  </si>
+  <si>
+    <t>list servers on LAN or local sub net only</t>
+  </si>
+  <si>
+    <t>map_restart</t>
+  </si>
+  <si>
+    <t>resets the game on the same map (also plays fight! sound file and displays FIGHT!)</t>
+  </si>
+  <si>
+    <t>meminfo</t>
+  </si>
+  <si>
+    <t>net_restart</t>
+  </si>
+  <si>
+    <t>notarget</t>
+  </si>
+  <si>
+    <t>BOTS will not fight/see you (good for getting cool screenshots)</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>display all current game paths</t>
+  </si>
+  <si>
+    <t>ping</t>
+  </si>
+  <si>
+    <t>manually ping a server (ping "&lt;sv_hostname&gt;" or by the IP address)</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
+    <t>quit arena and quit Quake 3 Arena and return to your OS…Thanx for flying</t>
+  </si>
+  <si>
+    <t>rcon</t>
+  </si>
+  <si>
+    <t>start a remote console to a server.</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>say something to everyone on the server.</t>
+  </si>
+  <si>
+    <t>serverinfo</t>
+  </si>
+  <si>
+    <t>gives information about local server from the console of that server</t>
+  </si>
+  <si>
+    <t>serverstatus</t>
+  </si>
+  <si>
+    <t>display the current status of the connected server as well as connected users and their slot number. if you specify an IP address it will display the status of a remote server</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>set a variable (set &lt;variable name&gt; &lt;commands;separate by;semi;colon&gt;)</t>
+  </si>
+  <si>
+    <t>seta</t>
+  </si>
+  <si>
+    <t>sets the variable with the archive flag will save the last setting to q3config.cfg and reload that setting every time you run the game. Any changes to variables with an A for the class ID are automatically stored in q3config.cfg - LOKi</t>
+  </si>
+  <si>
+    <t>setenv</t>
+  </si>
+  <si>
+    <t>sets environment variables</t>
+  </si>
+  <si>
+    <t>sets</t>
+  </si>
+  <si>
+    <t>sets the variable with the serverinfo flag, so it will be transmitted from a server to connecting clients - LOKi</t>
+  </si>
+  <si>
+    <t>setu</t>
+  </si>
+  <si>
+    <t>sets the variable with the userinfo flag, so it will be transmitted from a client to a server while connecting - LOKi</t>
+  </si>
+  <si>
+    <t>stats</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>status of currently connected server</t>
+  </si>
+  <si>
+    <t>systeminfo</t>
+  </si>
+  <si>
+    <t>returns values for: g_syncronousclients, sv_serverid, and timescale.</t>
+  </si>
+  <si>
+    <t>tcmd</t>
+  </si>
+  <si>
+    <t>display the current target command or displays some type of code address</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>set player status. p=player s=spectator red, blue, or free (team free joins smallest/loosing team)also in tourney play team follow1 2 etc.(follow players by lead position) team scoreboard your player becomes a scoreboard</t>
+  </si>
+  <si>
+    <t>g_allowVote "1"</t>
+  </si>
+  <si>
+    <t>toggle the use of voting on a server</t>
+  </si>
+  <si>
+    <t>g_forcerespawn "10"</t>
+  </si>
+  <si>
+    <t>set the respawn time in seconds, 0 = don't force respawn</t>
+  </si>
+  <si>
+    <t>g_friendlyFire "0"</t>
+  </si>
+  <si>
+    <t>toggle damage caused by friendly fire 1 = can kill or injure teammate</t>
+  </si>
+  <si>
+    <t>0 - Free For All  1 - Tournament  2 - Single Player 3 - Team Deathmatch  4 - Capture the Flag 5 - One Flag CTF  6 - Overload (Team Arena only)  7 - Harvester (Team Arena only)</t>
+  </si>
+  <si>
+    <t>g_gametype "0"</t>
+  </si>
+  <si>
+    <t>g_gravity "800"</t>
+  </si>
+  <si>
+    <t>set the gravity level. (this is normally set by a property of the map loaded)</t>
+  </si>
+  <si>
+    <t>g_inactivity "0"</t>
+  </si>
+  <si>
+    <t>set the amount of time a player can remain inactive before kicked</t>
+  </si>
+  <si>
+    <t>g_knockback "1000"</t>
+  </si>
+  <si>
+    <t>the knockback from a weapon, higher number = greater knockback.</t>
+  </si>
+  <si>
+    <t>g_log "1"</t>
+  </si>
+  <si>
+    <t>toggles logging of game data or statistics John Carmack made g_log a filename instead of a 0/1 in this version</t>
+  </si>
+  <si>
+    <t>g_logSync "0"</t>
+  </si>
+  <si>
+    <t>toggle the logging to append to the existing file and not overwrite</t>
+  </si>
+  <si>
+    <t>g_maxGameClients "0"</t>
+  </si>
+  <si>
+    <t>set maximum # of players who may join the game the remainder of clients are forced to spectate - Holesinswiss</t>
+  </si>
+  <si>
+    <t>g_motd ""</t>
+  </si>
+  <si>
+    <t>set message of the day to "X" (see "cl_motd" to display it)</t>
+  </si>
+  <si>
+    <t>g_needpass "0"</t>
+  </si>
+  <si>
+    <t>variable alerts the client that a password is needed to join your server</t>
+  </si>
+  <si>
+    <t>g_password ""</t>
+  </si>
+  <si>
+    <t>set the serverside password players use to get on the server</t>
+  </si>
+  <si>
+    <t>g_teamAutoJoin "0"</t>
+  </si>
+  <si>
+    <t>toggle the automatic joining of the smallest or loosing team</t>
+  </si>
+  <si>
+    <t>g_teamForceBalance "0"</t>
+  </si>
+  <si>
+    <t>toggle the forcing of teams to be as even as possible on a server</t>
+  </si>
+  <si>
+    <t>g_warmup ""</t>
+  </si>
+  <si>
+    <t>the warmup time for tournament play is set with g_warmup. A tournament game is implicitly a one on one match, and further players are automatically entered as spectators (note, when the game starts, all clients, including the spectators respawn). You can follow the players by using Steam follow1T, Steam follow2T, and you can be a scoreboard by using Steam scoreboardT., "Graeme Devine"</t>
+  </si>
+  <si>
+    <t>g_weaponrespawn "5"</t>
+  </si>
+  <si>
+    <t>set time before a picked up weapon will respawn again 0 = weapons stay</t>
+  </si>
+  <si>
+    <t>g_weaponTeamRespawn "30"</t>
+  </si>
+  <si>
+    <t>rconPassword ""</t>
+  </si>
+  <si>
+    <t>set password for remote console control of the server</t>
+  </si>
+  <si>
+    <t>sv_allowAnonymous "0"</t>
+  </si>
+  <si>
+    <t>possibly to toggle the allowing of anonymous clients to connect to your server</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>sv_allowdownload "1"</t>
+  </si>
+  <si>
+    <t>toggle the ability for clients to download files maps etc. from server. .</t>
+  </si>
+  <si>
+    <t>sv_cheats "1"</t>
+  </si>
+  <si>
+    <t>enable cheating commands (give all) (serverside only)</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>sv_floodProtect "1"</t>
+  </si>
+  <si>
+    <t>toggle server flood protection to keep players from bringing the server down</t>
+  </si>
+  <si>
+    <t>sv_fps "20"</t>
+  </si>
+  <si>
+    <t>set the max frames per second the server sends the client</t>
+  </si>
+  <si>
+    <t>sv_hostname ""</t>
+  </si>
+  <si>
+    <t>set the name of the server "Shadowlands"</t>
+  </si>
+  <si>
+    <t>sv_keywords ""</t>
+  </si>
+  <si>
+    <t>variable holds the search string entered in the internet connection menu</t>
+  </si>
+  <si>
+    <t>sv_killserver "0"</t>
+  </si>
+  <si>
+    <t>if set to a one the server goes down (server console only I hope)</t>
+  </si>
+  <si>
+    <t>sv_mapChecksum ""</t>
+  </si>
+  <si>
+    <t>allows check for client server map to match</t>
+  </si>
+  <si>
+    <t>sv_mapname ""</t>
+  </si>
+  <si>
+    <t>display the name of the current map being used on a server</t>
+  </si>
+  <si>
+    <t>sv_master1 ""</t>
+  </si>
+  <si>
+    <t>set URL or address to master server "master3.idsoftware.com"</t>
+  </si>
+  <si>
+    <t>sv_master2 ""</t>
+  </si>
+  <si>
+    <t>optional master 2</t>
+  </si>
+  <si>
+    <t>sv_master3 ""</t>
+  </si>
+  <si>
+    <t>optional master 3</t>
+  </si>
+  <si>
+    <t>sv_master4 ""</t>
+  </si>
+  <si>
+    <t>optional master 4</t>
+  </si>
+  <si>
+    <t>sv_master5 ""</t>
+  </si>
+  <si>
+    <t>optional master 5</t>
+  </si>
+  <si>
+    <t>sv_maxclients "8"</t>
+  </si>
+  <si>
+    <t>maximum number of people allowed to join the server dedicated server memory optimizations. Tips: com_hunkMegs 4 sv_maxclients 3 bot_enable 0 "John Carmack"</t>
+  </si>
+  <si>
+    <t>sv_maxPing "0"</t>
+  </si>
+  <si>
+    <t>set the maximum ping aloud on the server to keep HPB out</t>
+  </si>
+  <si>
+    <t>sv_maxRate ""</t>
+  </si>
+  <si>
+    <t>option to force all clients to play with a max rate. This can be used to limit the advantage of LPB, or to cap bandwidth utilization for a server. Note that rate is ignored for clients that are on the same LAN. Father John stepping in, in the name of fairness…(c: (ever notice when 3 or so LPB's join a server your PING takes a dump? It's because your slice of the pie got smaller because theirs is so big…die bandwidth suckers)</t>
+  </si>
+  <si>
+    <t>sv_minPing "0"</t>
+  </si>
+  <si>
+    <t>set the minimum ping aloud on the server to keep LPB out</t>
+  </si>
+  <si>
+    <t>sv_nopredict "0"</t>
+  </si>
+  <si>
+    <t>is it possible that the server is handling some prediction of player location?</t>
+  </si>
+  <si>
+    <t>sv_paused "0"</t>
+  </si>
+  <si>
+    <t>allow the game to be paused from the server console?</t>
+  </si>
+  <si>
+    <t>sv_privateClients "0"</t>
+  </si>
+  <si>
+    <t>the number of spots, out of sv_maxclients, reserved for players with the server password (sv_privatePassword) - Holesinswiss</t>
+  </si>
+  <si>
+    <t>sv_privatePassword ""</t>
+  </si>
+  <si>
+    <t>set password for private clients to login with</t>
+  </si>
+  <si>
+    <t>sv_pure "1"</t>
+  </si>
+  <si>
+    <t>disallow native DLL loading if sv_pure, requires clients to only get data from pk3 files the server is using "John Carmack"</t>
+  </si>
+  <si>
+    <t>sv_reconnectlimit "3"</t>
+  </si>
+  <si>
+    <t>number of times a disconnected client can come back and reconnect</t>
+  </si>
+  <si>
+    <t>sv_referencedPakNames ""</t>
+  </si>
+  <si>
+    <t>variable holds a list of all the pk3 files the server loaded data from. these pk3 files will be autodownloaded by a client if the client does not have them. "baseq3/pak2 baseq3/pak0"</t>
+  </si>
+  <si>
+    <t>sv_referencedPaks ""</t>
+  </si>
+  <si>
+    <t>variable holds the checksum of the referenced pk3 files</t>
+  </si>
+  <si>
+    <t>sv_running "1"</t>
+  </si>
+  <si>
+    <t>variable flag tells the console weather or not a local server is running</t>
+  </si>
+  <si>
+    <t>sv_serverid ""</t>
+  </si>
+  <si>
+    <t>hmm…"8021204"</t>
+  </si>
+  <si>
+    <t>sv_showloss "0"</t>
+  </si>
+  <si>
+    <t>toggle sever packet loss display</t>
+  </si>
+  <si>
+    <t>sv_timeout "120"</t>
+  </si>
+  <si>
+    <t>sets the amount of time for the server to wait for a client packet before assuming a disconnected state.</t>
+  </si>
+  <si>
+    <r>
+      <t>Enabled listing server on public Internet master servers. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>+set dedicated 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is public Internet, 1 is LAN/connect by IP (the default), 0 is non-dedicated (client binary only). It must be set in the command line arguments.</t>
+    </r>
+  </si>
+  <si>
+    <t>set fs_game &lt;mod directory&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>Set mod to play. For example to play Quake 3: Team Arena use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>+set fs_game missionpack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. It must be set in the command line arguments or changed using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>game_restart &lt;mod directory&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>map &lt;map name&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>Load a new map. Type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>map </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and press the tab key to list all maps.</t>
+    </r>
+  </si>
+  <si>
+    <t>devmap &lt;map name&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>Load a map with cheats enabled. Type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>devmap </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and press the tab key to list all maps.</t>
+    </r>
+  </si>
+  <si>
+    <t>map_restart &lt;seconds&gt;</t>
+  </si>
+  <si>
+    <t>Restart the map after an optional count down (default: 5 seconds).</t>
+  </si>
+  <si>
+    <t>set g_gametype 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Change the game mode. It takes affect after you load a new map. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is deathmatch, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is one on one (tournament), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is single player deathmatch (not available in multiplayer), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is team deathmatch, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is capture the flag.</t>
+    </r>
+  </si>
+  <si>
+    <t>set sv_pure 0</t>
+  </si>
+  <si>
+    <r>
+      <t>sv_pure 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> allow clients to use addon pk3s not installed on the server. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>sv_pure 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> restricts clients to using pk3s installed on the server.</t>
+    </r>
+  </si>
+  <si>
+    <t>set net_port &lt;port&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The UDP port that players connect to (default </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>27960</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). When running multiple servers it’s useful to specific the port on each server (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>27960</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve"> 27961</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, etc).</t>
+    </r>
+  </si>
+  <si>
+    <t>set com_hunkMegs &lt;megabytes&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Set amount of memory for </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quake 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‘s Hunk memory (default 128). You may need to increase it to run some addons. It must be set in the command line arguments.</t>
+    </r>
+  </si>
+  <si>
+    <t>set bot_enable 1 or 0</t>
+  </si>
+  <si>
+    <t>Enables or disables bots on your server. 1 is on, 0 is off.</t>
+  </si>
+  <si>
+    <t>set bot_minplayers &lt;range&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>Specifies a number of bots that should connect to the server when there are fewer than this number of human players. For example, if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>bot_minplayers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is set to 2 and one human player connects and joins the game then one of the bots will disconnect and the other will keep on playing.</t>
+    </r>
+  </si>
+  <si>
+    <t>addbot &lt;botname&gt; &lt;difficulty range&gt; &lt;teamcolor&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>Use this command to manually add bots to a server, optionally specifying the difficulty and team. The bots names are the same as the in-game names (Sarge, etc.) The difficulty is any whole number 1 through 5. 5 is the most difficult, 1 is the least. Team color is either </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>red</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>blue</t>
+    </r>
+  </si>
+  <si>
+    <t>set g_allowvote 1 or 0</t>
+  </si>
+  <si>
+    <r>
+      <t>Enable or disable player voting on the map, restarting the map, kicking a player, or the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>g_gametype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>banaddr &lt;range&gt;</t>
+  </si>
+  <si>
+    <t>ban an ip address range from joining a game on this server, valid &lt;range&gt; is either playernum or CIDR notation address range.</t>
+  </si>
+  <si>
+    <t>exceptaddr &lt;range&gt;</t>
+  </si>
+  <si>
+    <t>exempt an ip address range from a ban.</t>
+  </si>
+  <si>
+    <t>bandel &lt;range&gt;</t>
+  </si>
+  <si>
+    <t>delete ban (either range or ban number)</t>
+  </si>
+  <si>
+    <t>exceptdel &lt;range&gt;</t>
+  </si>
+  <si>
+    <t>delete exception (either range or exception number)</t>
+  </si>
+  <si>
+    <t>rehashbans</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">reload the banlist from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>serverbans.dat</t>
+    </r>
+  </si>
+  <si>
+    <t>flushbans</t>
+  </si>
+  <si>
+    <t>delete all bans</t>
+  </si>
+  <si>
+    <t>restart network subsystem to change latched settings</t>
+  </si>
+  <si>
+    <t>game_restart &lt;fs_game&gt;</t>
+  </si>
+  <si>
+    <t>Switch to another mod</t>
+  </si>
+  <si>
+    <t>kicknum &lt;client number&gt;</t>
+  </si>
+  <si>
+    <t>kick a client by number, same as clientkick command</t>
+  </si>
+  <si>
+    <t>kickall</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kick all clients, similar to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>kick all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (but kicks everyone even if someone is named </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>kickbots</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kick all bots, similar to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>kick allbots</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (but kicks all bots even if someone is named “allbots”)</t>
+    </r>
+  </si>
+  <si>
+    <t>tell &lt;client num&gt; &lt;msg&gt;</t>
+  </si>
+  <si>
+    <t>send message to a single client (new to server)</t>
+  </si>
+  <si>
+    <t>set dedicated 2</t>
+  </si>
+  <si>
+    <t>sv_dlURL</t>
+  </si>
+  <si>
+    <t>Web address of hosted files</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Rate of data sent to client</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2039,6 +3084,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2060,7 +3137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2120,11 +3197,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2150,28 +3248,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2189,6 +3269,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2198,8 +3299,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2512,24 +3654,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84274950-0E6C-4832-B335-2BDD90E9F459}">
-  <dimension ref="A1:B418"/>
+  <dimension ref="A1:B390"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.5703125" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
+      <c r="A1" s="26" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2537,7 +3679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2545,7 +3687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="60">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2553,7 +3695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="60">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2561,7 +3703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="45">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2569,7 +3711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="60">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2577,7 +3719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="60">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2585,7 +3727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="30">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2593,7 +3735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="45">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2601,7 +3743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="45">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2609,7 +3751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="60">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2617,7 +3759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2625,7 +3767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2633,13 +3775,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -2647,7 +3789,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -2655,7 +3797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -2663,7 +3805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -2671,7 +3813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -2679,7 +3821,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -2687,7 +3829,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -2695,13 +3837,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -2709,7 +3851,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -2717,7 +3859,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -2725,7 +3867,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
@@ -2733,7 +3875,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
@@ -2741,7 +3883,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
@@ -2749,7 +3891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="30">
       <c r="A31" s="2" t="s">
         <v>54</v>
       </c>
@@ -2757,7 +3899,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
         <v>56</v>
       </c>
@@ -2765,7 +3907,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
@@ -2773,7 +3915,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="30">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -2781,7 +3923,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
@@ -2789,7 +3931,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="30">
       <c r="A38" s="1" t="s">
         <v>64</v>
       </c>
@@ -2797,7 +3939,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="30">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -2805,7 +3947,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
@@ -2813,7 +3955,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
         <v>70</v>
       </c>
@@ -2821,7 +3963,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="30">
       <c r="A42" s="5" t="s">
         <v>72</v>
       </c>
@@ -2829,7 +3971,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="30">
       <c r="A43" s="1" t="s">
         <v>74</v>
       </c>
@@ -2837,7 +3979,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>76</v>
       </c>
@@ -2845,7 +3987,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="30">
       <c r="A45" s="1" t="s">
         <v>78</v>
       </c>
@@ -2853,7 +3995,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
@@ -2861,7 +4003,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -2869,7 +4011,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>84</v>
       </c>
@@ -2877,7 +4019,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="30">
       <c r="A49" s="5" t="s">
         <v>86</v>
       </c>
@@ -2885,7 +4027,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="30">
       <c r="A50" s="5" t="s">
         <v>88</v>
       </c>
@@ -2893,7 +4035,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
         <v>90</v>
       </c>
@@ -2901,7 +4043,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
         <v>92</v>
       </c>
@@ -2909,7 +4051,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
         <v>94</v>
       </c>
@@ -2917,7 +4059,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>96</v>
       </c>
@@ -2925,7 +4067,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="30">
       <c r="A55" s="5" t="s">
         <v>98</v>
       </c>
@@ -2933,7 +4075,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="30">
       <c r="A56" s="5" t="s">
         <v>100</v>
       </c>
@@ -2941,7 +4083,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="30">
       <c r="A57" s="5" t="s">
         <v>102</v>
       </c>
@@ -2949,7 +4091,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>104</v>
       </c>
@@ -2957,7 +4099,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>106</v>
       </c>
@@ -2965,7 +4107,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>108</v>
       </c>
@@ -2973,7 +4115,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>110</v>
       </c>
@@ -2981,7 +4123,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="30">
       <c r="A62" s="1" t="s">
         <v>112</v>
       </c>
@@ -2989,7 +4131,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
         <v>114</v>
       </c>
@@ -2997,7 +4139,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="30">
       <c r="A64" s="5" t="s">
         <v>116</v>
       </c>
@@ -3005,7 +4147,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="30">
       <c r="A65" s="5" t="s">
         <v>118</v>
       </c>
@@ -3013,7 +4155,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
         <v>120</v>
       </c>
@@ -3021,7 +4163,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
         <v>122</v>
       </c>
@@ -3029,7 +4171,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>124</v>
       </c>
@@ -3037,7 +4179,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
         <v>126</v>
       </c>
@@ -3045,7 +4187,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
         <v>128</v>
       </c>
@@ -3053,7 +4195,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
         <v>130</v>
       </c>
@@ -3061,7 +4203,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
         <v>132</v>
       </c>
@@ -3069,7 +4211,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
         <v>134</v>
       </c>
@@ -3077,25 +4219,25 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
         <v>139</v>
       </c>
@@ -3103,7 +4245,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
         <v>141</v>
       </c>
@@ -3111,7 +4253,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
         <v>143</v>
       </c>
@@ -3119,7 +4261,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="30">
       <c r="A80" s="1" t="s">
         <v>145</v>
       </c>
@@ -3127,7 +4269,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
         <v>147</v>
       </c>
@@ -3135,7 +4277,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
         <v>149</v>
       </c>
@@ -3143,7 +4285,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
         <v>151</v>
       </c>
@@ -3151,7 +4293,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
         <v>153</v>
       </c>
@@ -3159,7 +4301,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="30">
       <c r="A85" s="5" t="s">
         <v>155</v>
       </c>
@@ -3167,7 +4309,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="30">
       <c r="A86" s="5" t="s">
         <v>157</v>
       </c>
@@ -3175,7 +4317,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="30">
       <c r="A87" s="1" t="s">
         <v>159</v>
       </c>
@@ -3183,7 +4325,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
         <v>161</v>
       </c>
@@ -3191,7 +4333,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
         <v>163</v>
       </c>
@@ -3199,7 +4341,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
         <v>165</v>
       </c>
@@ -3207,7 +4349,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>167</v>
       </c>
@@ -3215,7 +4357,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
         <v>169</v>
       </c>
@@ -3223,7 +4365,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
         <v>171</v>
       </c>
@@ -3231,7 +4373,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="30">
       <c r="A94" s="1" t="s">
         <v>173</v>
       </c>
@@ -3239,7 +4381,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="30">
       <c r="A95" s="1" t="s">
         <v>175</v>
       </c>
@@ -3247,7 +4389,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
         <v>177</v>
       </c>
@@ -3255,7 +4397,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
         <v>179</v>
       </c>
@@ -3263,7 +4405,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="30">
       <c r="A99" s="1" t="s">
         <v>181</v>
       </c>
@@ -3271,13 +4413,13 @@
         <v>182</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
         <v>184</v>
       </c>
@@ -3285,7 +4427,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
         <v>186</v>
       </c>
@@ -3293,7 +4435,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
         <v>188</v>
       </c>
@@ -3301,7 +4443,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="30">
       <c r="A104" s="1" t="s">
         <v>190</v>
       </c>
@@ -3309,7 +4451,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
         <v>192</v>
       </c>
@@ -3317,7 +4459,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="30">
       <c r="A106" s="1" t="s">
         <v>194</v>
       </c>
@@ -3325,7 +4467,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
         <v>196</v>
       </c>
@@ -3333,7 +4475,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
         <v>198</v>
       </c>
@@ -3341,13 +4483,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
         <v>201</v>
       </c>
@@ -3355,7 +4497,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
         <v>203</v>
       </c>
@@ -3363,7 +4505,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
         <v>205</v>
       </c>
@@ -3371,7 +4513,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="30">
       <c r="A114" s="1" t="s">
         <v>207</v>
       </c>
@@ -3379,7 +4521,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
         <v>209</v>
       </c>
@@ -3387,7 +4529,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
         <v>211</v>
       </c>
@@ -3395,7 +4537,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118" s="5" t="s">
         <v>213</v>
       </c>
@@ -3403,7 +4545,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" s="5" t="s">
         <v>215</v>
       </c>
@@ -3411,7 +4553,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
         <v>217</v>
       </c>
@@ -3419,7 +4561,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="30">
       <c r="A121" s="5" t="s">
         <v>219</v>
       </c>
@@ -3427,7 +4569,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" s="5" t="s">
         <v>221</v>
       </c>
@@ -3435,7 +4577,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123" s="5" t="s">
         <v>223</v>
       </c>
@@ -3443,61 +4585,61 @@
         <v>224</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" s="20" t="s">
         <v>225</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="10"/>
+    <row r="126" spans="1:2">
+      <c r="A126" s="21"/>
       <c r="B126" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
+    <row r="127" spans="1:2">
+      <c r="A127" s="21"/>
       <c r="B127" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A128" s="10"/>
+    <row r="128" spans="1:2" ht="30">
+      <c r="A128" s="21"/>
       <c r="B128" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="11"/>
+    <row r="129" spans="1:2">
+      <c r="A129" s="22"/>
       <c r="B129" s="8"/>
     </row>
-    <row r="130" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" s="20" t="s">
         <v>230</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A131" s="10"/>
+    <row r="131" spans="1:2">
+      <c r="A131" s="21"/>
       <c r="B131" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A132" s="10"/>
+    <row r="132" spans="1:2">
+      <c r="A132" s="21"/>
       <c r="B132" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="11"/>
+    <row r="133" spans="1:2">
+      <c r="A133" s="22"/>
       <c r="B133" s="8"/>
     </row>
-    <row r="134" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="30">
       <c r="A134" s="3" t="s">
         <v>234</v>
       </c>
@@ -3505,7 +4647,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" s="3" t="s">
         <v>236</v>
       </c>
@@ -3513,7 +4655,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" s="3" t="s">
         <v>238</v>
       </c>
@@ -3521,49 +4663,49 @@
         <v>239</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A138" s="9" t="s">
+    <row r="138" spans="1:2">
+      <c r="A138" s="20" t="s">
         <v>240</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="10"/>
+    <row r="139" spans="1:2">
+      <c r="A139" s="21"/>
       <c r="B139" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
+    <row r="140" spans="1:2">
+      <c r="A140" s="21"/>
       <c r="B140" s="7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
+    <row r="141" spans="1:2">
+      <c r="A141" s="21"/>
       <c r="B141" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
+    <row r="142" spans="1:2">
+      <c r="A142" s="21"/>
       <c r="B142" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
+    <row r="143" spans="1:2">
+      <c r="A143" s="21"/>
       <c r="B143" s="7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="11"/>
+    <row r="144" spans="1:2">
+      <c r="A144" s="22"/>
       <c r="B144" s="8"/>
     </row>
-    <row r="145" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="A145" s="3" t="s">
         <v>247</v>
       </c>
@@ -3571,7 +4713,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146" s="3" t="s">
         <v>249</v>
       </c>
@@ -3579,23 +4721,23 @@
         <v>250</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147" s="12" t="s">
+    <row r="147" spans="1:2">
+      <c r="A147" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="9" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="12" t="s">
+    <row r="148" spans="1:2">
+      <c r="A148" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B148" s="12" t="s">
+      <c r="B148" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149" s="3" t="s">
         <v>255</v>
       </c>
@@ -3603,7 +4745,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150" s="3" t="s">
         <v>257</v>
       </c>
@@ -3611,7 +4753,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151" s="3" t="s">
         <v>259</v>
       </c>
@@ -3619,61 +4761,61 @@
         <v>260</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="9" t="s">
+    <row r="152" spans="1:2">
+      <c r="A152" s="20" t="s">
         <v>261</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
+    <row r="153" spans="1:2">
+      <c r="A153" s="21"/>
       <c r="B153" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
+    <row r="154" spans="1:2">
+      <c r="A154" s="21"/>
       <c r="B154" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
+    <row r="155" spans="1:2">
+      <c r="A155" s="21"/>
       <c r="B155" s="7" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
+    <row r="156" spans="1:2">
+      <c r="A156" s="21"/>
       <c r="B156" s="7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
+    <row r="157" spans="1:2">
+      <c r="A157" s="21"/>
       <c r="B157" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="10"/>
+    <row r="158" spans="1:2">
+      <c r="A158" s="21"/>
       <c r="B158" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
+    <row r="159" spans="1:2">
+      <c r="A159" s="21"/>
       <c r="B159" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="11"/>
+    <row r="160" spans="1:2">
+      <c r="A160" s="22"/>
       <c r="B160" s="8"/>
     </row>
-    <row r="161" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161" s="3" t="s">
         <v>270</v>
       </c>
@@ -3681,7 +4823,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="30">
       <c r="A162" s="3" t="s">
         <v>272</v>
       </c>
@@ -3689,7 +4831,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163" s="3" t="s">
         <v>274</v>
       </c>
@@ -3697,7 +4839,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2">
       <c r="A164" s="3" t="s">
         <v>276</v>
       </c>
@@ -3705,7 +4847,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2">
       <c r="A165" s="3" t="s">
         <v>278</v>
       </c>
@@ -3713,7 +4855,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2">
       <c r="A166" s="3" t="s">
         <v>280</v>
       </c>
@@ -3721,13 +4863,13 @@
         <v>281</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2">
       <c r="A167" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="30">
       <c r="A168" s="3" t="s">
         <v>283</v>
       </c>
@@ -3735,7 +4877,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2">
       <c r="A169" s="3" t="s">
         <v>285</v>
       </c>
@@ -3743,7 +4885,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2">
       <c r="A170" s="3" t="s">
         <v>287</v>
       </c>
@@ -3751,7 +4893,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2">
       <c r="A171" s="3" t="s">
         <v>289</v>
       </c>
@@ -3759,49 +4901,49 @@
         <v>290</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A172" s="9" t="s">
+    <row r="172" spans="1:2">
+      <c r="A172" s="20" t="s">
         <v>291</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="10"/>
+    <row r="173" spans="1:2">
+      <c r="A173" s="21"/>
       <c r="B173" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
+    <row r="174" spans="1:2">
+      <c r="A174" s="21"/>
       <c r="B174" s="7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="10"/>
+    <row r="175" spans="1:2">
+      <c r="A175" s="21"/>
       <c r="B175" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="10"/>
+    <row r="176" spans="1:2">
+      <c r="A176" s="21"/>
       <c r="B176" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
+    <row r="177" spans="1:2">
+      <c r="A177" s="21"/>
       <c r="B177" s="7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="11"/>
+    <row r="178" spans="1:2">
+      <c r="A178" s="22"/>
       <c r="B178" s="8"/>
     </row>
-    <row r="179" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="30">
       <c r="A179" s="3" t="s">
         <v>292</v>
       </c>
@@ -3809,15 +4951,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A180" s="13" t="s">
+    <row r="180" spans="1:2">
+      <c r="A180" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B180" s="13" t="s">
+      <c r="B180" s="10" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2">
       <c r="A181" s="1" t="s">
         <v>296</v>
       </c>
@@ -3825,71 +4967,71 @@
         <v>297</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A182" s="13" t="s">
+    <row r="182" spans="1:2">
+      <c r="A182" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B182" s="13" t="s">
+      <c r="B182" s="10" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A183" s="13" t="s">
+    <row r="183" spans="1:2">
+      <c r="A183" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B183" s="13" t="s">
+      <c r="B183" s="10" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A184" s="13" t="s">
+    <row r="184" spans="1:2">
+      <c r="A184" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B184" s="13" t="s">
+      <c r="B184" s="10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A185" s="13" t="s">
+    <row r="185" spans="1:2">
+      <c r="A185" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B185" s="13" t="s">
+      <c r="B185" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A186" s="13" t="s">
+    <row r="186" spans="1:2">
+      <c r="A186" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="B186" s="13" t="s">
+      <c r="B186" s="10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A187" s="13" t="s">
+    <row r="187" spans="1:2">
+      <c r="A187" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B187" s="13" t="s">
+      <c r="B187" s="10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A188" s="13" t="s">
+    <row r="188" spans="1:2" ht="30">
+      <c r="A188" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B188" s="13" t="s">
+      <c r="B188" s="10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A189" s="13" t="s">
+    <row r="189" spans="1:2" ht="30">
+      <c r="A189" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B189" s="13" t="s">
+      <c r="B189" s="10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="30">
       <c r="A190" s="3" t="s">
         <v>314</v>
       </c>
@@ -3897,7 +5039,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="30">
       <c r="A191" s="3" t="s">
         <v>316</v>
       </c>
@@ -3905,7 +5047,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2">
       <c r="A192" s="3" t="s">
         <v>318</v>
       </c>
@@ -3913,7 +5055,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2">
       <c r="A193" s="3" t="s">
         <v>320</v>
       </c>
@@ -3921,7 +5063,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2">
       <c r="A195" s="1" t="s">
         <v>322</v>
       </c>
@@ -3929,7 +5071,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2">
       <c r="A196" s="1" t="s">
         <v>324</v>
       </c>
@@ -3937,13 +5079,13 @@
         <v>325</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2">
       <c r="A197" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B197" s="1"/>
     </row>
-    <row r="198" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2">
       <c r="A198" s="1" t="s">
         <v>327</v>
       </c>
@@ -3951,19 +5093,19 @@
         <v>328</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2">
       <c r="A199" s="1" t="s">
         <v>329</v>
       </c>
       <c r="B199" s="1"/>
     </row>
-    <row r="200" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2">
       <c r="A200" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B200" s="1"/>
     </row>
-    <row r="201" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2">
       <c r="A201" s="1" t="s">
         <v>331</v>
       </c>
@@ -3971,7 +5113,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="30">
       <c r="A202" s="1" t="s">
         <v>333</v>
       </c>
@@ -3979,7 +5121,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="30">
       <c r="A203" s="1" t="s">
         <v>335</v>
       </c>
@@ -3987,7 +5129,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2">
       <c r="A204" s="1" t="s">
         <v>337</v>
       </c>
@@ -3995,7 +5137,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2">
       <c r="A205" s="1" t="s">
         <v>339</v>
       </c>
@@ -4003,7 +5145,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2">
       <c r="A206" s="1" t="s">
         <v>341</v>
       </c>
@@ -4011,7 +5153,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2">
       <c r="A207" s="1" t="s">
         <v>343</v>
       </c>
@@ -4019,7 +5161,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2">
       <c r="A209" s="3" t="s">
         <v>345</v>
       </c>
@@ -4027,19 +5169,19 @@
         <v>346</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2">
       <c r="A210" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2">
       <c r="A211" s="1" t="s">
         <v>348</v>
       </c>
       <c r="B211" s="1"/>
     </row>
-    <row r="212" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2">
       <c r="A212" s="1" t="s">
         <v>349</v>
       </c>
@@ -4047,7 +5189,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2">
       <c r="A213" s="1" t="s">
         <v>351</v>
       </c>
@@ -4055,7 +5197,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2">
       <c r="A214" s="1" t="s">
         <v>353</v>
       </c>
@@ -4063,7 +5205,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2">
       <c r="A215" s="1" t="s">
         <v>355</v>
       </c>
@@ -4071,7 +5213,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2">
       <c r="A216" s="1" t="s">
         <v>357</v>
       </c>
@@ -4079,7 +5221,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2">
       <c r="A218" s="3" t="s">
         <v>359</v>
       </c>
@@ -4087,7 +5229,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="30">
       <c r="A220" s="1" t="s">
         <v>361</v>
       </c>
@@ -4095,13 +5237,13 @@
         <v>362</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2">
       <c r="A221" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2">
       <c r="A222" s="5" t="s">
         <v>364</v>
       </c>
@@ -4109,7 +5251,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2">
       <c r="A223" s="1" t="s">
         <v>366</v>
       </c>
@@ -4117,7 +5259,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2">
       <c r="A224" s="1" t="s">
         <v>368</v>
       </c>
@@ -4125,7 +5267,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2">
       <c r="A225" s="1" t="s">
         <v>370</v>
       </c>
@@ -4133,7 +5275,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2">
       <c r="A226" s="5" t="s">
         <v>372</v>
       </c>
@@ -4141,7 +5283,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2">
       <c r="A227" s="5" t="s">
         <v>374</v>
       </c>
@@ -4149,7 +5291,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="30">
       <c r="A228" s="5" t="s">
         <v>376</v>
       </c>
@@ -4157,7 +5299,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2">
       <c r="A229" s="5" t="s">
         <v>378</v>
       </c>
@@ -4165,7 +5307,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2">
       <c r="A230" s="5" t="s">
         <v>380</v>
       </c>
@@ -4173,7 +5315,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2">
       <c r="A231" s="1" t="s">
         <v>382</v>
       </c>
@@ -4181,7 +5323,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2">
       <c r="A232" s="1" t="s">
         <v>384</v>
       </c>
@@ -4189,7 +5331,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2">
       <c r="A233" s="1" t="s">
         <v>386</v>
       </c>
@@ -4197,7 +5339,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2">
       <c r="A234" s="1" t="s">
         <v>388</v>
       </c>
@@ -4205,7 +5347,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2">
       <c r="A235" s="1" t="s">
         <v>390</v>
       </c>
@@ -4213,7 +5355,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2">
       <c r="A236" s="1" t="s">
         <v>392</v>
       </c>
@@ -4221,7 +5363,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2">
       <c r="A237" s="5" t="s">
         <v>394</v>
       </c>
@@ -4229,7 +5371,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="30">
       <c r="A238" s="1" t="s">
         <v>396</v>
       </c>
@@ -4237,7 +5379,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2">
       <c r="A239" s="5" t="s">
         <v>398</v>
       </c>
@@ -4245,7 +5387,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2">
       <c r="A240" s="5" t="s">
         <v>400</v>
       </c>
@@ -4253,7 +5395,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2">
       <c r="A241" s="1" t="s">
         <v>402</v>
       </c>
@@ -4261,7 +5403,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2">
       <c r="A242" s="1" t="s">
         <v>404</v>
       </c>
@@ -4269,13 +5411,13 @@
         <v>405</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2">
       <c r="A243" s="1" t="s">
         <v>406</v>
       </c>
       <c r="B243" s="1"/>
     </row>
-    <row r="244" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2">
       <c r="A244" s="1" t="s">
         <v>407</v>
       </c>
@@ -4283,7 +5425,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2">
       <c r="A245" s="1" t="s">
         <v>409</v>
       </c>
@@ -4291,7 +5433,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="30">
       <c r="A246" s="1" t="s">
         <v>411</v>
       </c>
@@ -4299,7 +5441,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" ht="30">
       <c r="A247" s="1" t="s">
         <v>413</v>
       </c>
@@ -4307,7 +5449,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2">
       <c r="A248" s="1" t="s">
         <v>415</v>
       </c>
@@ -4315,7 +5457,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2">
       <c r="A249" s="1" t="s">
         <v>417</v>
       </c>
@@ -4323,85 +5465,85 @@
         <v>418</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2">
       <c r="A250" s="1" t="s">
         <v>419</v>
       </c>
       <c r="B250" s="1"/>
     </row>
-    <row r="251" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2">
       <c r="A251" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B251" s="1"/>
     </row>
-    <row r="252" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2">
       <c r="A252" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="B252" s="14" t="s">
+      <c r="B252" s="11" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2">
       <c r="A253" s="18"/>
-      <c r="B253" s="15" t="s">
+      <c r="B253" s="12" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2">
       <c r="A254" s="18"/>
-      <c r="B254" s="15" t="s">
+      <c r="B254" s="12" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2">
       <c r="A255" s="18"/>
-      <c r="B255" s="15" t="s">
+      <c r="B255" s="12" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2">
       <c r="A256" s="18"/>
-      <c r="B256" s="15" t="s">
+      <c r="B256" s="12" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2">
       <c r="A257" s="18"/>
-      <c r="B257" s="15" t="s">
+      <c r="B257" s="12" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2">
       <c r="A258" s="18"/>
-      <c r="B258" s="15" t="s">
+      <c r="B258" s="12" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2">
       <c r="A259" s="18"/>
-      <c r="B259" s="15" t="s">
+      <c r="B259" s="12" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2">
       <c r="A260" s="18"/>
-      <c r="B260" s="15" t="s">
+      <c r="B260" s="12" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2">
       <c r="A261" s="19"/>
-      <c r="B261" s="16"/>
-    </row>
-    <row r="262" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B261" s="13"/>
+    </row>
+    <row r="262" spans="1:2">
       <c r="A262" s="1" t="s">
         <v>431</v>
       </c>
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2">
       <c r="A263" s="5" t="s">
         <v>432</v>
       </c>
@@ -4409,7 +5551,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2">
       <c r="A264" s="1" t="s">
         <v>434</v>
       </c>
@@ -4417,7 +5559,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2">
       <c r="A265" s="1" t="s">
         <v>436</v>
       </c>
@@ -4425,7 +5567,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2">
       <c r="A266" s="1" t="s">
         <v>438</v>
       </c>
@@ -4433,7 +5575,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2">
       <c r="A267" s="1" t="s">
         <v>440</v>
       </c>
@@ -4441,7 +5583,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" ht="30">
       <c r="A268" s="5" t="s">
         <v>442</v>
       </c>
@@ -4449,7 +5591,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2">
       <c r="A269" s="1" t="s">
         <v>444</v>
       </c>
@@ -4457,7 +5599,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2">
       <c r="A270" s="5" t="s">
         <v>446</v>
       </c>
@@ -4465,7 +5607,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2">
       <c r="A271" s="1" t="s">
         <v>448</v>
       </c>
@@ -4473,7 +5615,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2">
       <c r="A272" s="1" t="s">
         <v>450</v>
       </c>
@@ -4481,7 +5623,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2">
       <c r="A273" s="1" t="s">
         <v>452</v>
       </c>
@@ -4489,7 +5631,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2">
       <c r="A274" s="1" t="s">
         <v>454</v>
       </c>
@@ -4497,7 +5639,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2">
       <c r="A275" s="5" t="s">
         <v>456</v>
       </c>
@@ -4505,49 +5647,49 @@
         <v>457</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="30">
       <c r="A276" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="B276" s="14" t="s">
+      <c r="B276" s="11" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2">
       <c r="A277" s="18"/>
-      <c r="B277" s="15" t="s">
+      <c r="B277" s="12" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2">
       <c r="A278" s="18"/>
-      <c r="B278" s="15" t="s">
+      <c r="B278" s="12" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2">
       <c r="A279" s="18"/>
-      <c r="B279" s="15" t="s">
+      <c r="B279" s="12" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2">
       <c r="A280" s="18"/>
-      <c r="B280" s="15" t="s">
+      <c r="B280" s="12" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2">
       <c r="A281" s="18"/>
-      <c r="B281" s="15" t="s">
+      <c r="B281" s="12" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2">
       <c r="A282" s="19"/>
-      <c r="B282" s="16"/>
-    </row>
-    <row r="283" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B282" s="13"/>
+    </row>
+    <row r="283" spans="1:2">
       <c r="A283" s="5" t="s">
         <v>465</v>
       </c>
@@ -4555,7 +5697,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" ht="30">
       <c r="A285" s="1" t="s">
         <v>467</v>
       </c>
@@ -4563,7 +5705,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2">
       <c r="A286" s="3" t="s">
         <v>469</v>
       </c>
@@ -4571,887 +5713,669 @@
         <v>470</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
+    <row r="290" spans="1:2">
+      <c r="A290" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B288" s="1"/>
-    </row>
-    <row r="289" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
+      <c r="B290" s="1"/>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B289" s="1"/>
-    </row>
-    <row r="290" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
+      <c r="B291" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B290" s="1" t="s">
+    </row>
+    <row r="292" spans="1:2" ht="30">
+      <c r="A292" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A291" s="5" t="s">
+      <c r="B292" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B291" s="5" t="s">
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="3" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
+      <c r="B293" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B292" s="1" t="s">
+    </row>
+    <row r="294" spans="1:2" ht="30">
+      <c r="A294" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
+      <c r="B294" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B293" s="1"/>
-    </row>
-    <row r="294" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A294" s="5" t="s">
+    </row>
+    <row r="295" spans="1:2" ht="30">
+      <c r="A295" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B294" s="5" t="s">
+      <c r="B295" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
+    <row r="296" spans="1:2" ht="30">
+      <c r="A296" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="B296" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="30">
+      <c r="A297" s="3" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
+      <c r="B297" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="30">
+      <c r="A298" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="B298" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="30">
+      <c r="A299" s="3" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
+      <c r="B299" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="B300" s="3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
+    <row r="301" spans="1:2">
+      <c r="A301" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B301" s="3" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
+    <row r="302" spans="1:2">
+      <c r="A302" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="B302" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
+    <row r="303" spans="1:2">
+      <c r="A303" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B303" s="3" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
+    <row r="304" spans="1:2" ht="30">
+      <c r="A304" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="B304" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
+    <row r="305" spans="1:2">
+      <c r="A305" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="B305" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
+    <row r="306" spans="1:2">
+      <c r="A306" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="B306" s="1"/>
+    </row>
+    <row r="307" spans="1:2" ht="30">
+      <c r="A307" s="3" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
+      <c r="B307" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="B305" s="1" t="s">
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
+      <c r="B308" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B306" s="1" t="s">
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
+      <c r="B310" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B307" s="1" t="s">
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
+      <c r="B311" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B308" s="1" t="s">
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
+      <c r="B312" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B309" s="1" t="s">
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+      <c r="B314" s="1"/>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="B315" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
+    <row r="316" spans="1:2" ht="30">
+      <c r="A316" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="B316" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
+    <row r="317" spans="1:2">
+      <c r="A317" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="B317" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
+    <row r="318" spans="1:2">
+      <c r="A318" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="B318" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
+    <row r="319" spans="1:2" ht="45">
+      <c r="A319" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="B319" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
+    <row r="320" spans="1:2" ht="30">
+      <c r="A320" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="B320" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
+    <row r="321" spans="1:2" ht="30">
+      <c r="A321" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="B321" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A318" s="3" t="s">
+    <row r="322" spans="1:2" ht="30">
+      <c r="A322" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B318" s="1"/>
-    </row>
-    <row r="319" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A319" s="3" t="s">
+      <c r="B322" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B319" s="3" t="s">
+    </row>
+    <row r="323" spans="1:2" ht="30">
+      <c r="A323" s="1" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A320" s="3" t="s">
+      <c r="B323" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B320" s="3" t="s">
+    </row>
+    <row r="324" spans="1:2" ht="30">
+      <c r="A324" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A321" s="3" t="s">
+      <c r="B324" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B321" s="3" t="s">
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
+      <c r="B325" s="1"/>
+    </row>
+    <row r="326" spans="1:2" ht="30">
+      <c r="A326" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="B326" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A323" s="3" t="s">
+    <row r="327" spans="1:2" ht="30">
+      <c r="A327" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B327" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A324" s="3" t="s">
+    <row r="328" spans="1:2" ht="30">
+      <c r="A328" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B324" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A325" s="3" t="s">
+      <c r="B328" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B325" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A326" s="3" t="s">
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B326" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A327" s="3" t="s">
+      <c r="B330" s="1"/>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B327" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A328" s="3" t="s">
+      <c r="B331" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B328" s="3" t="s">
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A329" s="3" t="s">
+      <c r="B332" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B329" s="3" t="s">
+    </row>
+    <row r="334" spans="1:2" ht="30">
+      <c r="A334" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A330" s="3" t="s">
+      <c r="B334" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B330" s="3" t="s">
+    </row>
+    <row r="335" spans="1:2" ht="30">
+      <c r="A335" s="1" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A331" s="3" t="s">
+      <c r="B335" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B331" s="3" t="s">
+    </row>
+    <row r="336" spans="1:2" ht="30">
+      <c r="A336" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A332" s="3" t="s">
+      <c r="B336" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="45">
+      <c r="A338" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B338" s="3" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A333" s="3" t="s">
+    <row r="339" spans="1:2">
+      <c r="A339" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B339" s="3" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
+    <row r="340" spans="1:2">
+      <c r="A340" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B334" s="1"/>
-    </row>
-    <row r="335" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A335" s="3" t="s">
+      <c r="B340" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="B335" s="3" t="s">
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="3" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
+      <c r="B341" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B336" s="1" t="s">
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+    </row>
+    <row r="343" spans="1:2" ht="30">
+      <c r="A343" s="20" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
+      <c r="B343" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="B338" s="1" t="s">
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="21"/>
+      <c r="B344" s="7" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
+    <row r="345" spans="1:2">
+      <c r="A345" s="21"/>
+      <c r="B345" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="B339" s="1" t="s">
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="21"/>
+      <c r="B346" s="7" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
+    <row r="347" spans="1:2">
+      <c r="A347" s="21"/>
+      <c r="B347" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="B340" s="1" t="s">
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="21"/>
+      <c r="B348" s="7" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
+    <row r="349" spans="1:2">
+      <c r="A349" s="21"/>
+      <c r="B349" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="B342" s="1"/>
-    </row>
-    <row r="343" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="21"/>
+      <c r="B350" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="B343" s="1" t="s">
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="21"/>
+      <c r="B351" s="7" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
+    <row r="352" spans="1:2">
+      <c r="A352" s="21"/>
+      <c r="B352" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="B344" s="1" t="s">
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="21"/>
+      <c r="B353" s="7" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
+    <row r="354" spans="1:2">
+      <c r="A354" s="21"/>
+      <c r="B354" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="B345" s="1" t="s">
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="21"/>
+      <c r="B355" s="7" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
+    <row r="356" spans="1:2">
+      <c r="A356" s="21"/>
+      <c r="B356" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="B346" s="1" t="s">
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="21"/>
+      <c r="B357" s="7" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
+    <row r="358" spans="1:2">
+      <c r="A358" s="21"/>
+      <c r="B358" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="B347" s="1" t="s">
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="21"/>
+      <c r="B359" s="7" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
+    <row r="360" spans="1:2">
+      <c r="A360" s="21"/>
+      <c r="B360" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="B348" s="1" t="s">
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="21"/>
+      <c r="B361" s="7" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
+    <row r="362" spans="1:2">
+      <c r="A362" s="21"/>
+      <c r="B362" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="B349" s="1" t="s">
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="21"/>
+      <c r="B363" s="7" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
+    <row r="364" spans="1:2">
+      <c r="A364" s="21"/>
+      <c r="B364" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="B350" s="1" t="s">
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="21"/>
+      <c r="B365" s="7" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
+    <row r="366" spans="1:2">
+      <c r="A366" s="21"/>
+      <c r="B366" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B351" s="1" t="s">
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="21"/>
+      <c r="B367" s="7" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
+    <row r="368" spans="1:2">
+      <c r="A368" s="21"/>
+      <c r="B368" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="B352" s="1" t="s">
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="21"/>
+      <c r="B369" s="7" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
+    <row r="370" spans="1:2">
+      <c r="A370" s="21"/>
+      <c r="B370" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="B353" s="1"/>
-    </row>
-    <row r="354" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="21"/>
+      <c r="B371" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="B354" s="1" t="s">
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="21"/>
+      <c r="B372" s="7" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
+    <row r="373" spans="1:2">
+      <c r="A373" s="21"/>
+      <c r="B373" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="B355" s="1" t="s">
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="21"/>
+      <c r="B374" s="7" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
+    <row r="375" spans="1:2">
+      <c r="A375" s="21"/>
+      <c r="B375" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="B356" s="1" t="s">
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="21"/>
+      <c r="B376" s="7" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
+    <row r="377" spans="1:2">
+      <c r="A377" s="21"/>
+      <c r="B377" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B358" s="1"/>
-    </row>
-    <row r="359" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="21"/>
+      <c r="B378" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="B359" s="1" t="s">
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="22"/>
+      <c r="B379" s="8"/>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="23" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
+      <c r="B380" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="B360" s="1" t="s">
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="24"/>
+      <c r="B381" s="15" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
+    <row r="382" spans="1:2">
+      <c r="A382" s="24"/>
+      <c r="B382" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="B362" s="1" t="s">
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="24"/>
+      <c r="B383" s="15" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
+    <row r="384" spans="1:2">
+      <c r="A384" s="24"/>
+      <c r="B384" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="B363" s="1" t="s">
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="24"/>
+      <c r="B385" s="15" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
+    <row r="386" spans="1:2">
+      <c r="A386" s="24"/>
+      <c r="B386" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="B364" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A366" s="3" t="s">
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="24"/>
+      <c r="B387" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="B366" s="3" t="s">
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="24"/>
+      <c r="B388" s="15" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A367" s="3" t="s">
+    <row r="389" spans="1:2">
+      <c r="A389" s="24"/>
+      <c r="B389" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="B367" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A368" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="B368" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A369" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="B369" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="1"/>
-      <c r="B370" s="1"/>
-    </row>
-    <row r="371" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A371" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="B371" s="6" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A372" s="10"/>
-      <c r="B372" s="7" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A373" s="10"/>
-      <c r="B373" s="7" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A374" s="10"/>
-      <c r="B374" s="7" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A375" s="10"/>
-      <c r="B375" s="7" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A376" s="10"/>
-      <c r="B376" s="7" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A377" s="10"/>
-      <c r="B377" s="7" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A378" s="10"/>
-      <c r="B378" s="7" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A379" s="10"/>
-      <c r="B379" s="7" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A380" s="10"/>
-      <c r="B380" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A381" s="10"/>
-      <c r="B381" s="7" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A382" s="10"/>
-      <c r="B382" s="7" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A383" s="10"/>
-      <c r="B383" s="7" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A384" s="10"/>
-      <c r="B384" s="7" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A385" s="10"/>
-      <c r="B385" s="7" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A386" s="10"/>
-      <c r="B386" s="7" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A387" s="10"/>
-      <c r="B387" s="7" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A388" s="10"/>
-      <c r="B388" s="7" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A389" s="10"/>
-      <c r="B389" s="7" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A390" s="10"/>
-      <c r="B390" s="7" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A391" s="10"/>
-      <c r="B391" s="7" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A392" s="10"/>
-      <c r="B392" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A393" s="10"/>
-      <c r="B393" s="7" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A394" s="10"/>
-      <c r="B394" s="7" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A395" s="10"/>
-      <c r="B395" s="7" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A396" s="10"/>
-      <c r="B396" s="7" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A397" s="10"/>
-      <c r="B397" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A398" s="10"/>
-      <c r="B398" s="7" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A399" s="10"/>
-      <c r="B399" s="7" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A400" s="10"/>
-      <c r="B400" s="7" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A401" s="10"/>
-      <c r="B401" s="7" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A402" s="10"/>
-      <c r="B402" s="7" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A403" s="10"/>
-      <c r="B403" s="7" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A404" s="10"/>
-      <c r="B404" s="7" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A405" s="10"/>
-      <c r="B405" s="7" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A406" s="10"/>
-      <c r="B406" s="7" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="11"/>
-      <c r="B407" s="8"/>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="22" t="s">
-        <v>645</v>
-      </c>
-      <c r="B408" s="20" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="23"/>
-      <c r="B409" s="21" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A410" s="23"/>
-      <c r="B410" s="21" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A411" s="23"/>
-      <c r="B411" s="21" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="23"/>
-      <c r="B412" s="21" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A413" s="23"/>
-      <c r="B413" s="21" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="23"/>
-      <c r="B414" s="21" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="23"/>
-      <c r="B415" s="21" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="23"/>
-      <c r="B416" s="21" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="23"/>
-      <c r="B417" s="21" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="24"/>
-      <c r="B418" s="8"/>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="25"/>
+      <c r="B390" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A276:A282"/>
-    <mergeCell ref="A371:A407"/>
-    <mergeCell ref="A408:A418"/>
+    <mergeCell ref="A343:A379"/>
+    <mergeCell ref="A380:A390"/>
     <mergeCell ref="A125:A129"/>
     <mergeCell ref="A130:A133"/>
     <mergeCell ref="A138:A144"/>
@@ -5459,6 +6383,1081 @@
     <mergeCell ref="A172:A178"/>
     <mergeCell ref="A252:A261"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{9A650CA4-4341-4742-8114-11BDEC5EA2D1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD774906-45B6-4782-819C-37C8AF5120D3}">
+  <dimension ref="A1:C128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" style="31" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="31" t="s">
+        <v>856</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60">
+      <c r="A2" s="33" t="s">
+        <v>826</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" s="33" t="s">
+        <v>830</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="51">
+      <c r="A4" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="33" t="s">
+        <v>834</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="51">
+      <c r="A6" s="27" t="s">
+        <v>606</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="27" t="s">
+        <v>608</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="51">
+      <c r="A8" s="27" t="s">
+        <v>610</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="27" t="s">
+        <v>612</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="25.5">
+      <c r="A10" s="27" t="s">
+        <v>614</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="38.25">
+      <c r="A11" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="27" t="s">
+        <v>618</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="27" t="s">
+        <v>622</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="27" t="s">
+        <v>626</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="27" t="s">
+        <v>630</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="27" t="s">
+        <v>632</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="27" t="s">
+        <v>634</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="33" t="s">
+        <v>810</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="27" t="s">
+        <v>636</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="27" t="s">
+        <v>638</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="25.5">
+      <c r="A24" s="27" t="s">
+        <v>640</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="27" t="s">
+        <v>642</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="27" t="s">
+        <v>644</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="33" t="s">
+        <v>832</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="32" t="s">
+        <v>836</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="27" t="s">
+        <v>646</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="127.5">
+      <c r="A30" s="27" t="s">
+        <v>648</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="33" t="s">
+        <v>840</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="27" t="s">
+        <v>650</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="27" t="s">
+        <v>652</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="27" t="s">
+        <v>704</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="27" t="s">
+        <v>706</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="27" t="s">
+        <v>708</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="38.25">
+      <c r="A37" s="36" t="s">
+        <v>711</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="27" t="s">
+        <v>712</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="27" t="s">
+        <v>714</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="25.5">
+      <c r="A41" s="27" t="s">
+        <v>718</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="25.5">
+      <c r="A43" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="27" t="s">
+        <v>726</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="27" t="s">
+        <v>728</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="76.5">
+      <c r="A49" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="27" t="s">
+        <v>736</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="B51" s="38"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="33" t="s">
+        <v>843</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="25.5">
+      <c r="A54" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="51">
+      <c r="A55" s="27" t="s">
+        <v>659</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30">
+      <c r="A56" s="33" t="s">
+        <v>847</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30">
+      <c r="A57" s="32" t="s">
+        <v>849</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="33" t="s">
+        <v>845</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="27" t="s">
+        <v>661</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="27" t="s">
+        <v>663</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="33" t="s">
+        <v>808</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="25.5">
+      <c r="A62" s="27" t="s">
+        <v>665</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="33" t="s">
+        <v>812</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="27" t="s">
+        <v>667</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="33" t="s">
+        <v>668</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="27" t="s">
+        <v>669</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="27" t="s">
+        <v>671</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="33" t="s">
+        <v>838</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="27" t="s">
+        <v>679</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="38.25">
+      <c r="A75" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="75">
+      <c r="A78" s="33" t="s">
+        <v>824</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="45">
+      <c r="A79" s="33" t="s">
+        <v>820</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="60">
+      <c r="A80" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="45">
+      <c r="A81" s="33" t="s">
+        <v>806</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30">
+      <c r="A82" s="33" t="s">
+        <v>828</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="60">
+      <c r="A83" s="33" t="s">
+        <v>814</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="45">
+      <c r="A84" s="33" t="s">
+        <v>818</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="30">
+      <c r="A85" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="51">
+      <c r="A86" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="B86" s="28" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="B87" s="28" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="25.5">
+      <c r="A88" s="27" t="s">
+        <v>691</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="25.5">
+      <c r="A89" s="27" t="s">
+        <v>693</v>
+      </c>
+      <c r="B89" s="28" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="B90" s="28"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="27" t="s">
+        <v>696</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="C91" s="38"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="27" t="s">
+        <v>741</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>742</v>
+      </c>
+      <c r="C92" s="38"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="27" t="s">
+        <v>744</v>
+      </c>
+      <c r="B93" s="28" t="s">
+        <v>745</v>
+      </c>
+      <c r="C93" s="38"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="27" t="s">
+        <v>746</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>747</v>
+      </c>
+      <c r="C94" s="38"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="35" t="s">
+        <v>854</v>
+      </c>
+      <c r="B95" s="38" t="s">
+        <v>855</v>
+      </c>
+      <c r="C95" s="38"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>750</v>
+      </c>
+      <c r="C96" s="38"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="B97" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="C97" s="38"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="27" t="s">
+        <v>753</v>
+      </c>
+      <c r="B98" s="28" t="s">
+        <v>754</v>
+      </c>
+      <c r="C98" s="30"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="B99" s="37" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="B100" s="37" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="B101" s="37" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="34" t="s">
+        <v>761</v>
+      </c>
+      <c r="B102" s="37" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="34" t="s">
+        <v>763</v>
+      </c>
+      <c r="B103" s="37" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="34" t="s">
+        <v>765</v>
+      </c>
+      <c r="B104" s="37" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="34" t="s">
+        <v>767</v>
+      </c>
+      <c r="B105" s="37" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="34" t="s">
+        <v>769</v>
+      </c>
+      <c r="B106" s="37" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="34" t="s">
+        <v>771</v>
+      </c>
+      <c r="B107" s="37" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="38.25">
+      <c r="A108" s="34" t="s">
+        <v>773</v>
+      </c>
+      <c r="B108" s="37" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="34" t="s">
+        <v>775</v>
+      </c>
+      <c r="B109" s="37" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="76.5">
+      <c r="A110" s="34" t="s">
+        <v>777</v>
+      </c>
+      <c r="B110" s="37" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="34" t="s">
+        <v>779</v>
+      </c>
+      <c r="B111" s="37" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="34" t="s">
+        <v>781</v>
+      </c>
+      <c r="B112" s="37" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="34" t="s">
+        <v>783</v>
+      </c>
+      <c r="B113" s="37" t="s">
+        <v>784</v>
+      </c>
+      <c r="C113" s="41" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="25.5">
+      <c r="A114" s="34" t="s">
+        <v>785</v>
+      </c>
+      <c r="B114" s="37" t="s">
+        <v>786</v>
+      </c>
+      <c r="C114" s="41" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="34" t="s">
+        <v>787</v>
+      </c>
+      <c r="B115" s="37" t="s">
+        <v>788</v>
+      </c>
+      <c r="C115" s="43"/>
+    </row>
+    <row r="116" spans="1:3" ht="25.5">
+      <c r="A116" s="34" t="s">
+        <v>789</v>
+      </c>
+      <c r="B116" s="37" t="s">
+        <v>790</v>
+      </c>
+      <c r="C116" s="43"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="34" t="s">
+        <v>791</v>
+      </c>
+      <c r="B117" s="37" t="s">
+        <v>792</v>
+      </c>
+      <c r="C117" s="43"/>
+    </row>
+    <row r="118" spans="1:3" ht="38.25">
+      <c r="A118" s="34" t="s">
+        <v>793</v>
+      </c>
+      <c r="B118" s="37" t="s">
+        <v>794</v>
+      </c>
+      <c r="C118" s="41" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="34" t="s">
+        <v>795</v>
+      </c>
+      <c r="B119" s="37" t="s">
+        <v>796</v>
+      </c>
+      <c r="C119" s="41" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="34" t="s">
+        <v>797</v>
+      </c>
+      <c r="B120" s="37" t="s">
+        <v>798</v>
+      </c>
+      <c r="C120" s="41" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="34" t="s">
+        <v>799</v>
+      </c>
+      <c r="B121" s="37" t="s">
+        <v>800</v>
+      </c>
+      <c r="C121" s="41" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="34" t="s">
+        <v>801</v>
+      </c>
+      <c r="B122" s="37" t="s">
+        <v>802</v>
+      </c>
+      <c r="C122" s="43"/>
+    </row>
+    <row r="123" spans="1:3" ht="25.5">
+      <c r="A123" s="34" t="s">
+        <v>803</v>
+      </c>
+      <c r="B123" s="37" t="s">
+        <v>804</v>
+      </c>
+      <c r="C123" s="42"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="B125" s="37" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="38.25">
+      <c r="A126" s="34" t="s">
+        <v>702</v>
+      </c>
+      <c r="B126" s="37" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="32" t="s">
+        <v>851</v>
+      </c>
+      <c r="B127" s="29" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>858</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>